--- a/Examples/MrExcel.xlsx
+++ b/Examples/MrExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Excel-DNA\XFunctions\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B3FDAC-B5DE-4CD9-AADE-A3C68A108E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D86306-BEB9-4337-AEA5-E4318E9A125D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="4500" windowWidth="20265" windowHeight="9735" xr2:uid="{1246F8C7-1579-4471-833D-ECA59BD62319}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1246F8C7-1579-4471-833D-ECA59BD62319}"/>
   </bookViews>
   <sheets>
     <sheet name="LastMatch" sheetId="4" r:id="rId1"/>
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1599E6C7-18DA-45BE-A75A-AF0493F1251E}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -640,7 +640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -654,7 +654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -665,7 +665,7 @@
         <v>70210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -678,12 +678,16 @@
       <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">_xll.XLOOKUP(E4, $A$2:$A$16,$C$2:$C$16,0,-1)</f>
+      <c r="F4">
+        <f>_xlfn.XLOOKUP(E4, $A$2:$A$16,$C$2:$C$16,,0,-1)</f>
         <v>83250</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">_xll.XLOOKUP.FROM.ADDIN(E4, $A$2:$A$16,$C$2:$C$16,,0,-1)</f>
+        <v>83250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -696,12 +700,16 @@
       <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">_xll.XLOOKUP(E5, $A$2:$A$16,$C$2:$C$16,0,-1)</f>
+      <c r="F5">
+        <f>_xlfn.XLOOKUP(E5, $A$2:$A$16,$C$2:$C$16,,0,-1)</f>
         <v>73350</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">_xll.XLOOKUP.FROM.ADDIN(E5, $A$2:$A$16,$C$2:$C$16,,0,-1)</f>
+        <v>73350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -714,12 +722,16 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">_xll.XLOOKUP(E6, $A$2:$A$16,$C$2:$C$16,0,-1)</f>
+      <c r="F6">
+        <f>_xlfn.XLOOKUP(E6, $A$2:$A$16,$C$2:$C$16,,0,-1)</f>
         <v>32220</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">_xll.XLOOKUP.FROM.ADDIN(E6, $A$2:$A$16,$C$2:$C$16,,0,-1)</f>
+        <v>32220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -730,7 +742,7 @@
         <v>81330</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -741,7 +753,7 @@
         <v>31340</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -752,7 +764,7 @@
         <v>81400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -763,7 +775,7 @@
         <v>31650</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -774,7 +786,7 @@
         <v>71740</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -785,7 +797,7 @@
         <v>31990</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -796,7 +808,7 @@
         <v>32220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -807,7 +819,7 @@
         <v>72400</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -818,7 +830,7 @@
         <v>83250</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -839,7 +851,7 @@
   <dimension ref="C1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,8 +877,12 @@
       <c r="C2">
         <v>12835</v>
       </c>
-      <c r="D2" cm="1">
-        <f t="array" ref="D2">_xll.XLOOKUP(C2, $G$2:$G$6, $H$2:$H$6, -1)</f>
+      <c r="D2">
+        <f>_xlfn.XLOOKUP(C2, $G$2:$G$6, $H$2:$H$6,, -1)</f>
+        <v>12</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">_xll.XLOOKUP.FROM.ADDIN(C2, $G$2:$G$6, $H$2:$H$6,, -1)</f>
         <v>12</v>
       </c>
       <c r="G2">
@@ -880,8 +896,12 @@
       <c r="C3">
         <v>19634</v>
       </c>
-      <c r="D3" cm="1">
-        <f t="array" ref="D3">_xll.XLOOKUP(C3, $G$2:$G$6, $H$2:$H$6, -1)</f>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">_xlfn.XLOOKUP(C3, $G$2:$G$6, $H$2:$H$6,, -1)</f>
+        <v>12</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">_xll.XLOOKUP.FROM.ADDIN(C3, $G$2:$G$6, $H$2:$H$6,, -1)</f>
         <v>12</v>
       </c>
       <c r="G3">
@@ -895,8 +915,12 @@
       <c r="C4">
         <v>898</v>
       </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4">_xll.XLOOKUP(C4, $G$2:$G$6, $H$2:$H$6, -1)</f>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">_xll.XLOOKUP.FROM.ADDIN(C4, $G$2:$G$6, $H$2:$H$6,, -1)</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -910,8 +934,12 @@
       <c r="C5">
         <v>7747</v>
       </c>
-      <c r="D5" cm="1">
-        <f t="array" ref="D5">_xll.XLOOKUP(C5, $G$2:$G$6, $H$2:$H$6, -1)</f>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">_xll.XLOOKUP.FROM.ADDIN(C5, $G$2:$G$6, $H$2:$H$6,, -1)</f>
         <v>5</v>
       </c>
       <c r="G5">
@@ -925,8 +953,12 @@
       <c r="C6">
         <v>6239</v>
       </c>
-      <c r="D6" cm="1">
-        <f t="array" ref="D6">_xll.XLOOKUP(C6, $G$2:$G$6, $H$2:$H$6, -1)</f>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">_xll.XLOOKUP.FROM.ADDIN(C6, $G$2:$G$6, $H$2:$H$6,, -1)</f>
         <v>5</v>
       </c>
       <c r="G6">
@@ -940,8 +972,12 @@
       <c r="C7">
         <v>19867</v>
       </c>
-      <c r="D7" cm="1">
-        <f t="array" ref="D7">_xll.XLOOKUP(C7, $G$2:$G$6, $H$2:$H$6, -1)</f>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">_xll.XLOOKUP.FROM.ADDIN(C7, $G$2:$G$6, $H$2:$H$6,, -1)</f>
         <v>12</v>
       </c>
     </row>
@@ -949,8 +985,12 @@
       <c r="C8">
         <v>27537</v>
       </c>
-      <c r="D8" cm="1">
-        <f t="array" ref="D8">_xll.XLOOKUP(C8, $G$2:$G$6, $H$2:$H$6, -1)</f>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">_xll.XLOOKUP.FROM.ADDIN(C8, $G$2:$G$6, $H$2:$H$6,, -1)</f>
         <v>100</v>
       </c>
     </row>
@@ -965,7 +1005,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,8 +1038,12 @@
       <c r="B2">
         <v>9</v>
       </c>
-      <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2">_xll.XLOOKUP(B2,$H$2:$H$6,$F$2:$F$6,1)</f>
+      <c r="C2" t="str">
+        <f>_xlfn.XLOOKUP(B2,$H$2:$H$6,$F$2:$F$6,,1)</f>
+        <v>White Van</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2">_xll.XLOOKUP.FROM.ADDIN(B2,$H$2:$H$6,$F$2:$F$6,,1)</f>
         <v>White Van</v>
       </c>
       <c r="F2" t="s">
@@ -1016,8 +1060,12 @@
       <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" t="str" cm="1">
-        <f t="array" ref="C3">_xll.XLOOKUP(B3,$H$2:$H$6,$F$2:$F$6,1)</f>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C9" si="0">_xlfn.XLOOKUP(B3,$H$2:$H$6,$F$2:$F$6,,1)</f>
+        <v>White Van</v>
+      </c>
+      <c r="E3" t="str" cm="1">
+        <f t="array" ref="E3">_xll.XLOOKUP.FROM.ADDIN(B3,$H$2:$H$6,$F$2:$F$6,,1)</f>
         <v>White Van</v>
       </c>
       <c r="F3" t="s">
@@ -1034,8 +1082,12 @@
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" t="str" cm="1">
-        <f t="array" ref="C4">_xll.XLOOKUP(B4,$H$2:$H$6,$F$2:$F$6,1)</f>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Van</v>
+      </c>
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4">_xll.XLOOKUP.FROM.ADDIN(B4,$H$2:$H$6,$F$2:$F$6,,1)</f>
         <v>Van</v>
       </c>
       <c r="F4" t="s">
@@ -1052,8 +1104,12 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="str" cm="1">
-        <f t="array" ref="C5">_xll.XLOOKUP(B5,$H$2:$H$6,$F$2:$F$6,1)</f>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Car</v>
+      </c>
+      <c r="E5" t="str" cm="1">
+        <f t="array" ref="E5">_xll.XLOOKUP.FROM.ADDIN(B5,$H$2:$H$6,$F$2:$F$6,,1)</f>
         <v>Car</v>
       </c>
       <c r="F5" t="s">
@@ -1070,8 +1126,12 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="str" cm="1">
-        <f t="array" ref="C6">_xll.XLOOKUP(B6,$H$2:$H$6,$F$2:$F$6,1)</f>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Car</v>
+      </c>
+      <c r="E6" t="str" cm="1">
+        <f t="array" ref="E6">_xll.XLOOKUP.FROM.ADDIN(B6,$H$2:$H$6,$F$2:$F$6,,1)</f>
         <v>Car</v>
       </c>
       <c r="F6" t="s">
@@ -1088,8 +1148,12 @@
       <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" t="str" cm="1">
-        <f t="array" ref="C7">_xll.XLOOKUP(B7,$H$2:$H$6,$F$2:$F$6,1)</f>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>White Van</v>
+      </c>
+      <c r="E7" t="str" cm="1">
+        <f t="array" ref="E7">_xll.XLOOKUP.FROM.ADDIN(B7,$H$2:$H$6,$F$2:$F$6,,1)</f>
         <v>White Van</v>
       </c>
     </row>
@@ -1097,8 +1161,12 @@
       <c r="B8">
         <v>17</v>
       </c>
-      <c r="C8" t="str" cm="1">
-        <f t="array" ref="C8">_xll.XLOOKUP(B8,$H$2:$H$6,$F$2:$F$6,1)</f>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Bus</v>
+      </c>
+      <c r="E8" t="str" cm="1">
+        <f t="array" ref="E8">_xll.XLOOKUP.FROM.ADDIN(B8,$H$2:$H$6,$F$2:$F$6,,1)</f>
         <v>Bus</v>
       </c>
     </row>
@@ -1106,8 +1174,12 @@
       <c r="B9">
         <v>59</v>
       </c>
-      <c r="C9" t="str" cm="1">
-        <f t="array" ref="C9">_xll.XLOOKUP(B9,$H$2:$H$6,$F$2:$F$6,1)</f>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Bus</v>
+      </c>
+      <c r="E9" t="str" cm="1">
+        <f t="array" ref="E9">_xll.XLOOKUP.FROM.ADDIN(B9,$H$2:$H$6,$F$2:$F$6,,1)</f>
         <v>Bus</v>
       </c>
     </row>
@@ -1119,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E9AC-D870-4D6A-9A0C-35B4F7946A46}">
-  <dimension ref="A3:AB7"/>
+  <dimension ref="A3:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1309,7 @@
         <v>22</v>
       </c>
       <c r="B4" cm="1">
-        <f t="array" ref="B4:M4">_xll.XLOOKUP($A4, $P$4:$P$227,$Q$4:$AB$227)</f>
+        <f t="array" ref="B4:M4">_xludf.XLOOKUP($A4, $P$4:$P$227,$Q$4:$AB$227)</f>
         <v>3</v>
       </c>
       <c r="C4">
@@ -1318,51 +1390,51 @@
         <v>22</v>
       </c>
       <c r="B5" cm="1">
-        <f t="array" ref="B5">_xll.XLOOKUP($A5, $P$4:$P$227,Q$4:Q$227)</f>
+        <f t="array" ref="B5">_xludf.XLOOKUP($A5, $P$4:$P$227,Q$4:Q$227)</f>
         <v>3</v>
       </c>
       <c r="C5" cm="1">
-        <f t="array" ref="C5">_xll.XLOOKUP($A5, $P$4:$P$227,R$4:R$227)</f>
+        <f t="array" ref="C5">_xludf.XLOOKUP($A5, $P$4:$P$227,R$4:R$227)</f>
         <v>0</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" ref="D5">_xll.XLOOKUP($A5, $P$4:$P$227,S$4:S$227)</f>
+        <f t="array" ref="D5">_xludf.XLOOKUP($A5, $P$4:$P$227,S$4:S$227)</f>
         <v>7</v>
       </c>
       <c r="E5" cm="1">
-        <f t="array" ref="E5">_xll.XLOOKUP($A5, $P$4:$P$227,T$4:T$227)</f>
+        <f t="array" ref="E5">_xludf.XLOOKUP($A5, $P$4:$P$227,T$4:T$227)</f>
         <v>0</v>
       </c>
       <c r="F5" cm="1">
-        <f t="array" ref="F5">_xll.XLOOKUP($A5, $P$4:$P$227,U$4:U$227)</f>
+        <f t="array" ref="F5">_xludf.XLOOKUP($A5, $P$4:$P$227,U$4:U$227)</f>
         <v>4</v>
       </c>
       <c r="G5" cm="1">
-        <f t="array" ref="G5">_xll.XLOOKUP($A5, $P$4:$P$227,V$4:V$227)</f>
+        <f t="array" ref="G5">_xludf.XLOOKUP($A5, $P$4:$P$227,V$4:V$227)</f>
         <v>9</v>
       </c>
       <c r="H5" cm="1">
-        <f t="array" ref="H5">_xll.XLOOKUP($A5, $P$4:$P$227,W$4:W$227)</f>
+        <f t="array" ref="H5">_xludf.XLOOKUP($A5, $P$4:$P$227,W$4:W$227)</f>
         <v>4</v>
       </c>
       <c r="I5" cm="1">
-        <f t="array" ref="I5">_xll.XLOOKUP($A5, $P$4:$P$227,X$4:X$227)</f>
+        <f t="array" ref="I5">_xludf.XLOOKUP($A5, $P$4:$P$227,X$4:X$227)</f>
         <v>3</v>
       </c>
       <c r="J5" cm="1">
-        <f t="array" ref="J5">_xll.XLOOKUP($A5, $P$4:$P$227,Y$4:Y$227)</f>
+        <f t="array" ref="J5">_xludf.XLOOKUP($A5, $P$4:$P$227,Y$4:Y$227)</f>
         <v>5</v>
       </c>
       <c r="K5" cm="1">
-        <f t="array" ref="K5">_xll.XLOOKUP($A5, $P$4:$P$227,Z$4:Z$227)</f>
+        <f t="array" ref="K5">_xludf.XLOOKUP($A5, $P$4:$P$227,Z$4:Z$227)</f>
         <v>3</v>
       </c>
       <c r="L5" cm="1">
-        <f t="array" ref="L5">_xll.XLOOKUP($A5, $P$4:$P$227,AA$4:AA$227)</f>
+        <f t="array" ref="L5">_xludf.XLOOKUP($A5, $P$4:$P$227,AA$4:AA$227)</f>
         <v>7</v>
       </c>
       <c r="M5" cm="1">
-        <f t="array" ref="M5">_xll.XLOOKUP($A5, $P$4:$P$227,AB$4:AB$227)</f>
+        <f t="array" ref="M5">_xludf.XLOOKUP($A5, $P$4:$P$227,AB$4:AB$227)</f>
         <v>1</v>
       </c>
       <c r="P5" t="s">
@@ -1447,6 +1519,43 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7" cm="1">
+        <f t="array" ref="B7:M7">_xll.XLOOKUP.FROM.ADDIN($A4, $P$4:$P$227,$Q$4:$AB$227)</f>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
       <c r="P7" t="s">
         <v>24</v>
       </c>
@@ -1485,6 +1594,45 @@
       </c>
       <c r="AB7">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B8" cm="1">
+        <f t="array" ref="B8:M8">_xll.XLOOKUP.FROM.ADDIN($A5, $P$4:$P$227,$Q$4:$AB$227)</f>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
